--- a/File/Mẫu nhập tài sản đã cấp phát.xlsx
+++ b/File/Mẫu nhập tài sản đã cấp phát.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
   <si>
     <t>ma_phong_ban</t>
   </si>
@@ -257,16 +257,28 @@
     <t>Ghi chú 2</t>
   </si>
   <si>
-    <t>24/03/2025</t>
-  </si>
-  <si>
-    <t>TS-000001</t>
+    <t/>
+  </si>
+  <si>
+    <t>TS-008493</t>
   </si>
   <si>
     <t>KQLVT-TFT</t>
   </si>
   <si>
     <t>4.3.KXN</t>
+  </si>
+  <si>
+    <t>24/04/2025</t>
+  </si>
+  <si>
+    <t>29/02/2025</t>
+  </si>
+  <si>
+    <t>bv199</t>
+  </si>
+  <si>
+    <t>23/04/2025</t>
   </si>
 </sst>
 </file>
@@ -843,7 +855,7 @@
         <v>45</v>
       </c>
       <c r="B6" t="s" s="15">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s" s="14">
         <v>58</v>

--- a/File/Mẫu nhập tài sản đã cấp phát.xlsx
+++ b/File/Mẫu nhập tài sản đã cấp phát.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\asset\asset-maintenance\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tester\Auto\Selenium\Login\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AD576D-3F05-4C40-8858-22F311E101B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B107761-C96B-4BD6-B3A1-2701EDF7CA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ds cấp phát TSCĐ" sheetId="2" r:id="rId1"/>
@@ -23,9 +23,9 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{5897698B-E59D-42B0-A575-7C1ECF9C3848}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{FCBE8BD3-6A36-495B-A83B-5AA96605B849}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{F1B5133D-73B0-46B4-AACD-A8D062B66C90}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{FCBE8BD3-6A36-495B-A83B-5AA96605B849}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{5897698B-E59D-42B0-A575-7C1ECF9C3848}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="58">
   <si>
     <t>ma_phong_ban</t>
   </si>
@@ -224,52 +224,28 @@
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>TS-001630</t>
-  </si>
-  <si>
-    <t>TS-001629</t>
-  </si>
-  <si>
-    <t>30/03/2024</t>
-  </si>
-  <si>
-    <t>02/04/2024</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>5.KN</t>
-  </si>
-  <si>
-    <t>longau</t>
-  </si>
-  <si>
-    <t>pgd1</t>
-  </si>
-  <si>
-    <t>Ghi chú 1</t>
-  </si>
-  <si>
-    <t>Ghi chú 2</t>
+    <t>TS-008496</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>26/04/2025</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>TS-008493</t>
-  </si>
-  <si>
-    <t>KQLVT-TFT</t>
+    <t>TS-007876</t>
+  </si>
+  <si>
+    <t>KT001</t>
   </si>
   <si>
     <t>4.3.KXN</t>
   </si>
   <si>
-    <t>24/04/2025</t>
+    <t>27/11/2024</t>
   </si>
   <si>
     <t>29/02/2025</t>
@@ -278,7 +254,10 @@
     <t>bv199</t>
   </si>
   <si>
-    <t>23/04/2025</t>
+    <t>26/11/2024</t>
+  </si>
+  <si>
+    <t>TS-007871</t>
   </si>
 </sst>
 </file>
@@ -760,22 +739,22 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="15" width="5.46484375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="15" width="21.46484375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="14" width="27.86328125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="23" width="26.46484375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="14" width="26.19921875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="14" width="23.86328125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="14" width="28.19921875" collapsed="false"/>
-    <col min="8" max="16384" style="14" width="12.796875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="15" width="5.44140625"/>
+    <col min="2" max="2" customWidth="true" style="15" width="21.44140625"/>
+    <col min="3" max="3" customWidth="true" style="14" width="27.88671875"/>
+    <col min="4" max="4" customWidth="true" style="23" width="26.44140625"/>
+    <col min="5" max="5" customWidth="true" style="14" width="26.21875"/>
+    <col min="6" max="6" customWidth="true" style="14" width="23.88671875"/>
+    <col min="7" max="7" customWidth="true" style="14" width="28.21875"/>
+    <col min="8" max="16384" style="14" width="12.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>42</v>
       </c>
@@ -786,7 +765,7 @@
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
     </row>
-    <row r="2" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -795,7 +774,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" s="13" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>41</v>
       </c>
@@ -806,7 +785,7 @@
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -829,7 +808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="18" customFormat="1" ht="41.65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
         <v>37</v>
@@ -855,41 +834,23 @@
         <v>45</v>
       </c>
       <c r="B6" t="s" s="15">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s" s="14">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s" s="23">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s" s="14">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{5897698B-E59D-42B0-A575-7C1ECF9C3848}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:Y254" xr:uid="{4ED84E6D-B3A9-46C5-8D33-B68DBD154420}"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1416023640"/>
-        </ext>
-      </extLst>
-    </customSheetView>
-    <customSheetView guid="{F1B5133D-73B0-46B4-AACD-A8D062B66C90}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:Y1126" xr:uid="{386DF583-C0A4-4A2E-8228-62A6C1C0A67D}"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1669903916"/>
-        </ext>
-      </extLst>
-    </customSheetView>
     <customSheetView guid="{FCBE8BD3-6A36-495B-A83B-5AA96605B849}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:Z1377" xr:uid="{941047CB-87F9-4B8E-A3AD-79EDC147B9BB}">
+      <autoFilter ref="A2:Z1377" xr:uid="{7BFA42ED-B847-464B-9B73-5549640F2AF9}">
         <filterColumn colId="4">
           <filters>
             <filter val="- 02Hệ tủ tài liệu treo tường , 03 Bàn làm việc, Bộ Salon Thẳng, Bàn trà kính"/>
@@ -926,6 +887,24 @@
         </ext>
       </extLst>
     </customSheetView>
+    <customSheetView guid="{F1B5133D-73B0-46B4-AACD-A8D062B66C90}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:Y1126" xr:uid="{C45E7315-58EF-4595-8566-41135570AC78}"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1669903916"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+    <customSheetView guid="{5897698B-E59D-42B0-A575-7C1ECF9C3848}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:Y254" xr:uid="{003304EE-EB25-485D-AD7D-22B184DFC7C9}"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1416023640"/>
+        </ext>
+      </extLst>
+    </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -945,12 +924,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="40.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="40.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -970,7 +949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -985,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -1002,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -1016,7 +995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -1030,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -1047,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1065,7 +1044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1079,7 +1058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -1099,7 +1078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -1116,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
@@ -1133,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>

--- a/File/Mẫu nhập tài sản đã cấp phát.xlsx
+++ b/File/Mẫu nhập tài sản đã cấp phát.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="60">
   <si>
     <t>ma_phong_ban</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>TS-007871</t>
+  </si>
+  <si>
+    <t>TS-007870</t>
+  </si>
+  <si>
+    <t>TS-007863</t>
   </si>
 </sst>
 </file>
@@ -837,7 +843,7 @@
         <v>53</v>
       </c>
       <c r="C6" t="s" s="14">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s" s="23">
         <v>51</v>

--- a/File/Mẫu nhập tài sản đã cấp phát.xlsx
+++ b/File/Mẫu nhập tài sản đã cấp phát.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tester\Auto\Selenium\Login\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\asset\asset-maintenance\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B107761-C96B-4BD6-B3A1-2701EDF7CA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AD576D-3F05-4C40-8858-22F311E101B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ds cấp phát TSCĐ" sheetId="2" r:id="rId1"/>
@@ -23,9 +23,9 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{F1B5133D-73B0-46B4-AACD-A8D062B66C90}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{FCBE8BD3-6A36-495B-A83B-5AA96605B849}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{5897698B-E59D-42B0-A575-7C1ECF9C3848}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{FCBE8BD3-6A36-495B-A83B-5AA96605B849}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{F1B5133D-73B0-46B4-AACD-A8D062B66C90}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="72">
   <si>
     <t>ma_phong_ban</t>
   </si>
@@ -224,28 +224,55 @@
     <t>1</t>
   </si>
   <si>
-    <t>TS-008496</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>26/04/2025</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>TS-001630</t>
+  </si>
+  <si>
+    <t>TS-001629</t>
+  </si>
+  <si>
+    <t>30/03/2024</t>
+  </si>
+  <si>
+    <t>02/04/2024</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>5.KN</t>
+  </si>
+  <si>
+    <t>longau</t>
+  </si>
+  <si>
+    <t>pgd1</t>
+  </si>
+  <si>
+    <t>Ghi chú 1</t>
+  </si>
+  <si>
+    <t>Ghi chú 2</t>
+  </si>
+  <si>
+    <t>27/11/2024</t>
+  </si>
+  <si>
+    <t>TS-007856</t>
+  </si>
+  <si>
+    <t>KT001</t>
+  </si>
+  <si>
+    <t>4.3.KXN</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>TS-007876</t>
-  </si>
-  <si>
-    <t>KT001</t>
-  </si>
-  <si>
-    <t>4.3.KXN</t>
-  </si>
-  <si>
-    <t>27/11/2024</t>
+    <t>TS-007855</t>
   </si>
   <si>
     <t>29/02/2025</t>
@@ -257,13 +284,22 @@
     <t>26/11/2024</t>
   </si>
   <si>
-    <t>TS-007871</t>
-  </si>
-  <si>
-    <t>TS-007870</t>
-  </si>
-  <si>
-    <t>TS-007863</t>
+    <t>TS-007854</t>
+  </si>
+  <si>
+    <t>TS-007852</t>
+  </si>
+  <si>
+    <t>TS-008520</t>
+  </si>
+  <si>
+    <t>XEXqJ1</t>
+  </si>
+  <si>
+    <t>05/05/2025</t>
+  </si>
+  <si>
+    <t>04/05/2025</t>
   </si>
 </sst>
 </file>
@@ -745,22 +781,22 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A8" sqref="A8:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="15" width="5.44140625"/>
-    <col min="2" max="2" customWidth="true" style="15" width="21.44140625"/>
-    <col min="3" max="3" customWidth="true" style="14" width="27.88671875"/>
-    <col min="4" max="4" customWidth="true" style="23" width="26.44140625"/>
-    <col min="5" max="5" customWidth="true" style="14" width="26.21875"/>
-    <col min="6" max="6" customWidth="true" style="14" width="23.88671875"/>
-    <col min="7" max="7" customWidth="true" style="14" width="28.21875"/>
-    <col min="8" max="16384" style="14" width="12.77734375"/>
+    <col min="1" max="1" customWidth="true" style="15" width="5.46484375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="15" width="21.46484375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="14" width="27.86328125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="23" width="26.46484375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="14" width="26.19921875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="14" width="23.86328125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="14" width="28.19921875" collapsed="false"/>
+    <col min="8" max="16384" style="14" width="12.796875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>42</v>
       </c>
@@ -771,7 +807,7 @@
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
     </row>
-    <row r="2" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -780,7 +816,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="13" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="25" t="s">
         <v>41</v>
       </c>
@@ -791,7 +827,7 @@
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -814,7 +850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="18" customFormat="1" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
         <v>37</v>
@@ -840,23 +876,41 @@
         <v>45</v>
       </c>
       <c r="B6" t="s" s="15">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s" s="14">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s" s="23">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s" s="14">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{5897698B-E59D-42B0-A575-7C1ECF9C3848}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:Y254" xr:uid="{4ED84E6D-B3A9-46C5-8D33-B68DBD154420}"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1416023640"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+    <customSheetView guid="{F1B5133D-73B0-46B4-AACD-A8D062B66C90}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:Y1126" xr:uid="{386DF583-C0A4-4A2E-8228-62A6C1C0A67D}"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1669903916"/>
+        </ext>
+      </extLst>
+    </customSheetView>
     <customSheetView guid="{FCBE8BD3-6A36-495B-A83B-5AA96605B849}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:Z1377" xr:uid="{7BFA42ED-B847-464B-9B73-5549640F2AF9}">
+      <autoFilter ref="A2:Z1377" xr:uid="{941047CB-87F9-4B8E-A3AD-79EDC147B9BB}">
         <filterColumn colId="4">
           <filters>
             <filter val="- 02Hệ tủ tài liệu treo tường , 03 Bàn làm việc, Bộ Salon Thẳng, Bàn trà kính"/>
@@ -893,24 +947,6 @@
         </ext>
       </extLst>
     </customSheetView>
-    <customSheetView guid="{F1B5133D-73B0-46B4-AACD-A8D062B66C90}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:Y1126" xr:uid="{C45E7315-58EF-4595-8566-41135570AC78}"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1669903916"/>
-        </ext>
-      </extLst>
-    </customSheetView>
-    <customSheetView guid="{5897698B-E59D-42B0-A575-7C1ECF9C3848}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:Y254" xr:uid="{003304EE-EB25-485D-AD7D-22B184DFC7C9}"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1416023640"/>
-        </ext>
-      </extLst>
-    </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -930,12 +966,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="40.0"/>
+    <col min="2" max="2" customWidth="true" width="40.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -955,7 +991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -970,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -987,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +1037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -1015,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -1032,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1050,7 +1086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1064,7 +1100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -1084,7 +1120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -1101,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
@@ -1118,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>

--- a/File/Mẫu nhập tài sản đã cấp phát.xlsx
+++ b/File/Mẫu nhập tài sản đã cấp phát.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="84">
   <si>
     <t>ma_phong_ban</t>
   </si>
@@ -300,6 +300,42 @@
   </si>
   <si>
     <t>04/05/2025</t>
+  </si>
+  <si>
+    <t>TS-007845</t>
+  </si>
+  <si>
+    <t>TS-007894</t>
+  </si>
+  <si>
+    <t>KTS-MOI</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>23/09/2024</t>
+  </si>
+  <si>
+    <t>sondt</t>
+  </si>
+  <si>
+    <t>22/09/2024</t>
+  </si>
+  <si>
+    <t>21/09/2024</t>
+  </si>
+  <si>
+    <t>TS-007871</t>
+  </si>
+  <si>
+    <t>KTS-TAM</t>
+  </si>
+  <si>
+    <t>20/09/2024</t>
+  </si>
+  <si>
+    <t>K.CCDC</t>
   </si>
 </sst>
 </file>
@@ -876,16 +912,16 @@
         <v>45</v>
       </c>
       <c r="B6" t="s" s="15">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s" s="14">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s" s="23">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s" s="14">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/File/Mẫu nhập tài sản đã cấp phát.xlsx
+++ b/File/Mẫu nhập tài sản đã cấp phát.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="86">
   <si>
     <t>ma_phong_ban</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>K.CCDC</t>
+  </si>
+  <si>
+    <t>15/05/2025</t>
+  </si>
+  <si>
+    <t>TS-007502</t>
   </si>
 </sst>
 </file>
@@ -912,13 +918,13 @@
         <v>45</v>
       </c>
       <c r="B6" t="s" s="15">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s" s="14">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s" s="23">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s" s="14">
         <v>75</v>

--- a/File/Mẫu nhập tài sản đã cấp phát.xlsx
+++ b/File/Mẫu nhập tài sản đã cấp phát.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="74">
   <si>
     <t>ma_phong_ban</t>
   </si>
@@ -257,91 +257,55 @@
     <t>Ghi chú 2</t>
   </si>
   <si>
-    <t>27/11/2024</t>
-  </si>
-  <si>
-    <t>TS-007856</t>
-  </si>
-  <si>
-    <t>KT001</t>
-  </si>
-  <si>
-    <t>4.3.KXN</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>TS-007855</t>
+    <t>TS-007100</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>01/08/2024</t>
   </si>
   <si>
     <t>29/02/2025</t>
   </si>
   <si>
-    <t>bv199</t>
-  </si>
-  <si>
-    <t>26/11/2024</t>
-  </si>
-  <si>
-    <t>TS-007854</t>
-  </si>
-  <si>
-    <t>TS-007852</t>
-  </si>
-  <si>
-    <t>TS-008520</t>
-  </si>
-  <si>
-    <t>XEXqJ1</t>
-  </si>
-  <si>
-    <t>05/05/2025</t>
-  </si>
-  <si>
-    <t>04/05/2025</t>
-  </si>
-  <si>
-    <t>TS-007845</t>
-  </si>
-  <si>
-    <t>TS-007894</t>
-  </si>
-  <si>
-    <t>KTS-MOI</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>23/09/2024</t>
-  </si>
-  <si>
-    <t>sondt</t>
-  </si>
-  <si>
-    <t>22/09/2024</t>
-  </si>
-  <si>
-    <t>21/09/2024</t>
-  </si>
-  <si>
-    <t>TS-007871</t>
-  </si>
-  <si>
-    <t>KTS-TAM</t>
-  </si>
-  <si>
-    <t>20/09/2024</t>
-  </si>
-  <si>
-    <t>K.CCDC</t>
-  </si>
-  <si>
-    <t>15/05/2025</t>
-  </si>
-  <si>
-    <t>TS-007502</t>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>31/07/2024</t>
+  </si>
+  <si>
+    <t>18/05/2025</t>
+  </si>
+  <si>
+    <t>TS-007106</t>
+  </si>
+  <si>
+    <t>KTSVT</t>
+  </si>
+  <si>
+    <t>TS-008194</t>
+  </si>
+  <si>
+    <t>KHO_VTYT</t>
+  </si>
+  <si>
+    <t>17/05/2025</t>
+  </si>
+  <si>
+    <t>16/05/2025</t>
+  </si>
+  <si>
+    <t>TS-008195</t>
+  </si>
+  <si>
+    <t>TS-008196</t>
   </si>
 </sst>
 </file>
@@ -918,16 +882,16 @@
         <v>45</v>
       </c>
       <c r="B6" t="s" s="15">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s" s="14">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s" s="23">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s" s="14">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
